--- a/data/AIO_Daten_Arbeitsmappe.xlsx
+++ b/data/AIO_Daten_Arbeitsmappe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23516"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSO\OneDrive - OPITZ CONSULTING Deutschland GmbH\Daimler\Daten-und-praesie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{1DE88293-BAD2-4A33-AE89-BEC273F65B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C75D547-0FF0-46AA-97F5-EF8736097A11}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{1DE88293-BAD2-4A33-AE89-BEC273F65B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1DA880DD-5E11-4016-8CDC-2FEA5D6EB46A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprachen" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>Java</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>Python</t>
+  </si>
+  <si>
+    <t>Kotlin</t>
   </si>
   <si>
     <t>A/B Criteria Comparison Matrix [C]</t>
@@ -1712,9 +1715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
@@ -1745,6 +1750,11 @@
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1758,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -1778,19 +1788,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="str">
         <f>B$1</f>
@@ -1805,7 +1815,7 @@
         <v>Betriebswitschaftlich</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1920,7 +1930,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B4)</f>
@@ -1937,22 +1947,22 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2002,7 +2012,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f>B$1</f>
@@ -2029,7 +2039,7 @@
         <v>Betriebswitschaftlich</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2185,6 +2195,37 @@
       <c r="K30">
         <f>SUM(G30:I30)</f>
         <v>73.324675324675326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <f>$K$2*B31</f>
+        <v>26.7012987012987</v>
+      </c>
+      <c r="H31">
+        <f>$K$3*C31</f>
+        <v>52.467532467532472</v>
+      </c>
+      <c r="I31">
+        <f>$K$4*D31</f>
+        <v>14.155844155844155</v>
+      </c>
+      <c r="K31">
+        <f>SUM(G31:I31)</f>
+        <v>93.324675324675326</v>
       </c>
     </row>
   </sheetData>
@@ -2209,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -2223,22 +2264,22 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" t="str">
         <f>$B$1</f>
@@ -2257,7 +2298,7 @@
         <v>Bekannten Kontexte</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2439,7 +2480,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B5)</f>
@@ -2460,22 +2501,22 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2535,7 +2576,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f>B$1</f>
@@ -2570,7 +2611,7 @@
         <v>Bekannten Kontexte</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2760,6 +2801,44 @@
       </c>
       <c r="M30">
         <f>SUM(G30:K30)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <f>B31*$M$2</f>
+        <v>31.818181818181817</v>
+      </c>
+      <c r="I31">
+        <f>C31*$M$3</f>
+        <v>31.818181818181817</v>
+      </c>
+      <c r="J31">
+        <f>D31*$M$4</f>
+        <v>31.818181818181817</v>
+      </c>
+      <c r="K31">
+        <f>E31*$M$5</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G31:K31)</f>
         <v>100</v>
       </c>
     </row>
@@ -2784,10 +2863,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -2800,34 +2879,34 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M1" t="str">
         <f>$B$1</f>
@@ -2862,7 +2941,7 @@
         <v>Profiling/Monitoring</v>
       </c>
       <c r="V1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -3455,7 +3534,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:I11" si="9">SUM(B2:B9)</f>
@@ -3492,22 +3571,22 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -3607,7 +3686,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:I25" si="11">B$1</f>
@@ -3674,7 +3753,7 @@
         <v>Profiling/Monitoring</v>
       </c>
       <c r="V25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -4020,6 +4099,75 @@
       <c r="V30">
         <f>SUM(M30:T30)</f>
         <v>58.716825661868761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <f>'6_1_Laufzeitverhalten'!K31</f>
+        <v>49.999999999999993</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <f>'6_2_Ausführungsumgebung'!R31</f>
+        <v>84.192356149252703</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <f>'6_3_Integration-mit-andere-Modu'!K31</f>
+        <v>86.666666666666657</v>
+      </c>
+      <c r="I31">
+        <v>70</v>
+      </c>
+      <c r="M31">
+        <f>$V$2*B31</f>
+        <v>6.2499999999999991</v>
+      </c>
+      <c r="N31">
+        <f>$V$3*C31</f>
+        <v>7.5</v>
+      </c>
+      <c r="O31">
+        <f>$V$4*D31</f>
+        <v>7.5</v>
+      </c>
+      <c r="P31">
+        <f>$V$5*E31</f>
+        <v>7.5</v>
+      </c>
+      <c r="Q31">
+        <f>$V$6*F31</f>
+        <v>10.524044518656588</v>
+      </c>
+      <c r="R31">
+        <f>$V$7*G31</f>
+        <v>12.5</v>
+      </c>
+      <c r="S31">
+        <f>$V$8*H31</f>
+        <v>10.833333333333332</v>
+      </c>
+      <c r="T31">
+        <f>$V$9*I31</f>
+        <v>8.75</v>
+      </c>
+      <c r="V31">
+        <f>SUM(M31:T31)</f>
+        <v>71.357377851989924</v>
       </c>
     </row>
   </sheetData>
@@ -4043,10 +4191,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -4057,19 +4205,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="str">
         <f>$B$1</f>
@@ -4084,7 +4232,7 @@
         <v>Staruptime</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4197,7 +4345,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B4)</f>
@@ -4214,22 +4362,22 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4279,7 +4427,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f>B$1</f>
@@ -4306,7 +4454,7 @@
         <v>Staruptime</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4462,6 +4610,37 @@
       <c r="K30">
         <f>SUM(G30:I30)</f>
         <v>63.333333333333329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <f>$K$2*B31</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H32" si="0">$K$3*C31</f>
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <f>$K$4*D31</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="K31">
+        <f>SUM(G31:I31)</f>
+        <v>49.999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -4485,10 +4664,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -4499,28 +4678,28 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="str">
         <f>$B$1</f>
@@ -4547,7 +4726,7 @@
         <v>Serverless</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4914,7 +5093,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <f t="shared" ref="B9:G9" si="7">SUM(B2:B7)</f>
@@ -4943,22 +5122,22 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -5038,7 +5217,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:G25" si="9">B$1</f>
@@ -5089,7 +5268,7 @@
         <v>Serverless</v>
       </c>
       <c r="R25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -5350,6 +5529,58 @@
       <c r="R30">
         <f>SUM(K30:P30)</f>
         <v>56.401271961616786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>80</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <f>$R$2*B31</f>
+        <v>19.611227606917261</v>
+      </c>
+      <c r="L31">
+        <f>$R$3*C31</f>
+        <v>12.959748541645091</v>
+      </c>
+      <c r="M31">
+        <f>$R$4*D31</f>
+        <v>27.791084187635914</v>
+      </c>
+      <c r="N31">
+        <f>$R$5*E31</f>
+        <v>17.88708967588278</v>
+      </c>
+      <c r="O31">
+        <f>$R$6*F31</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>$R$7*G31</f>
+        <v>5.9432061371716545</v>
+      </c>
+      <c r="R31">
+        <f>SUM(K31:P31)</f>
+        <v>84.192356149252703</v>
       </c>
     </row>
   </sheetData>
@@ -5374,10 +5605,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -5388,19 +5619,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="str">
         <f>$B$1</f>
@@ -5415,7 +5646,7 @@
         <v>Synchron/Asynchron</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -5528,7 +5759,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B4)</f>
@@ -5545,22 +5776,22 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5610,7 +5841,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f>B$1</f>
@@ -5637,7 +5868,7 @@
         <v>Synchron/Asynchron</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -5793,6 +6024,37 @@
       <c r="K30">
         <f>SUM(G30:I30)</f>
         <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>80</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <f>$K$2*B31</f>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="H31">
+        <f>$K$3*C31</f>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="I31">
+        <f>$K$4*D31</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K31">
+        <f>SUM(G31:I31)</f>
+        <v>86.666666666666657</v>
       </c>
     </row>
   </sheetData>
@@ -5806,10 +6068,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -5820,22 +6082,22 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" t="str">
         <f>$B$1</f>
@@ -5854,7 +6116,7 @@
         <v>Verfügbarkeit von Online Trianings, Literatur</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6035,7 +6297,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B5)</f>
@@ -6056,22 +6318,22 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6131,7 +6393,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f>B$1</f>
@@ -6166,7 +6428,7 @@
         <v>Verfügbarkeit von Online Trianings, Literatur</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -6357,6 +6619,44 @@
       <c r="M30">
         <f>SUM(H30:K30)</f>
         <v>96.9375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <f>$M$2*B31</f>
+        <v>30.625000000000004</v>
+      </c>
+      <c r="I31">
+        <f>$M$3*C31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>$M$4*D31</f>
+        <v>24.375</v>
+      </c>
+      <c r="K31">
+        <f>$M$5*E31</f>
+        <v>14.374999999999998</v>
+      </c>
+      <c r="M31">
+        <f>SUM(H31:K31)</f>
+        <v>69.375</v>
       </c>
     </row>
   </sheetData>
@@ -6380,10 +6680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -6395,31 +6695,31 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="str">
         <f>$B$1</f>
@@ -6450,7 +6750,7 @@
         <v>Lizenz</v>
       </c>
       <c r="S1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -6924,7 +7224,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:H10" si="8">SUM(B2:B8)</f>
@@ -6957,22 +7257,22 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7062,7 +7362,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:H25" si="10">B$1</f>
@@ -7121,7 +7421,7 @@
         <v>Lizenz</v>
       </c>
       <c r="S25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -7447,6 +7747,71 @@
       <c r="S30">
         <f>SUM(K30:Q30)</f>
         <v>77.369422851918344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <f>'2_Programmiersprache'!S31</f>
+        <v>80.447532033626743</v>
+      </c>
+      <c r="C31">
+        <f>'3_Programmierumgebung'!W31</f>
+        <v>73.57096935560088</v>
+      </c>
+      <c r="D31">
+        <f>'4_Business-Context'!K31</f>
+        <v>93.324675324675326</v>
+      </c>
+      <c r="E31">
+        <f>'5_Hardware-Context'!M31</f>
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <f>'6_Laufzeitverhalten'!V31</f>
+        <v>71.357377851989924</v>
+      </c>
+      <c r="G31">
+        <f>'7_Community'!M31</f>
+        <v>69.375</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <f>$S$2*B31</f>
+        <v>5.9023757433263517</v>
+      </c>
+      <c r="L31">
+        <f>$S$3*C31</f>
+        <v>9.409037655717043</v>
+      </c>
+      <c r="M31">
+        <f>$S$4*D31</f>
+        <v>27.433240487774523</v>
+      </c>
+      <c r="N31">
+        <f>$S$5*E31</f>
+        <v>17.205902247182149</v>
+      </c>
+      <c r="O31">
+        <f>$S$6*F31</f>
+        <v>10.762264006865948</v>
+      </c>
+      <c r="P31">
+        <f>$S$7*G31</f>
+        <v>4.6021802585422718</v>
+      </c>
+      <c r="Q31">
+        <f>$S$8*H31</f>
+        <v>11.556648835125502</v>
+      </c>
+      <c r="S31">
+        <f>SUM(K31:Q31)</f>
+        <v>86.871649234533791</v>
       </c>
     </row>
   </sheetData>
@@ -7467,10 +7832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="S30" sqref="S30:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -7485,31 +7850,31 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="str">
         <f>$B$1</f>
@@ -7540,7 +7905,7 @@
         <v>Lernkurve</v>
       </c>
       <c r="S1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -8017,7 +8382,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:H10" si="9">SUM(B2:B8)</f>
@@ -8050,22 +8415,22 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -8155,28 +8520,28 @@
     </row>
     <row r="25" spans="1:19" ht="16.899999999999999">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
         <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" t="s">
-        <v>30</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" ref="K25:Q25" si="11">B$25</f>
@@ -8207,7 +8572,7 @@
         <v>Lernkurve</v>
       </c>
       <c r="S25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -8513,6 +8878,67 @@
       <c r="S30">
         <f>SUM(K30:Q30)</f>
         <v>70.5593593694107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <f>'2_1_Paradigmen'!K31</f>
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <f>'2_2_StdLib'!S31</f>
+        <v>74.726713702045771</v>
+      </c>
+      <c r="E31">
+        <v>80</v>
+      </c>
+      <c r="F31">
+        <v>70</v>
+      </c>
+      <c r="G31">
+        <v>70</v>
+      </c>
+      <c r="H31">
+        <v>60</v>
+      </c>
+      <c r="K31">
+        <f>$S$2*B31</f>
+        <v>11.296497924192481</v>
+      </c>
+      <c r="L31">
+        <f>$S$3*C31</f>
+        <v>13.369042356985359</v>
+      </c>
+      <c r="M31">
+        <f>$S$4*D31</f>
+        <v>16.442780725989067</v>
+      </c>
+      <c r="N31">
+        <f>$S$5*E31</f>
+        <v>20.584475079177306</v>
+      </c>
+      <c r="O31">
+        <f>$S$6*F31</f>
+        <v>10.536919176305366</v>
+      </c>
+      <c r="P31">
+        <f>$S$7*G31</f>
+        <v>4.8263160539375365</v>
+      </c>
+      <c r="Q31">
+        <f>$S$8*H31</f>
+        <v>3.3915007170396274</v>
+      </c>
+      <c r="S31">
+        <f>SUM(K31:Q31)</f>
+        <v>80.447532033626743</v>
       </c>
     </row>
   </sheetData>
@@ -8537,10 +8963,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -8551,19 +8977,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="str">
         <f>$B$1</f>
@@ -8578,7 +9004,7 @@
         <v>Objekt Orientiert</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -8691,7 +9117,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B4)</f>
@@ -8708,22 +9134,22 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8773,7 +9199,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f>B$1</f>
@@ -8800,7 +9226,7 @@
         <v>Objekt Orientiert</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -8956,6 +9382,37 @@
       <c r="K30">
         <f>SUM(G30:I30)</f>
         <v>63.332315314398194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <f>$K$2*B31</f>
+        <v>8.3307882859954532</v>
+      </c>
+      <c r="H31">
+        <f>$K$3*C31</f>
+        <v>19.318605992738132</v>
+      </c>
+      <c r="I31">
+        <f>$K$4*D31</f>
+        <v>72.350605721266419</v>
+      </c>
+      <c r="K31">
+        <f>SUM(G31:I31)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8980,10 +9437,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -8997,31 +9454,31 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="str">
         <f>$B$1</f>
@@ -9052,7 +9509,7 @@
         <v>Frameworks</v>
       </c>
       <c r="S1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -9521,7 +9978,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:H10" si="8">SUM(B2:B8)</f>
@@ -9554,22 +10011,22 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -9659,7 +10116,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:H25" si="10">B$1</f>
@@ -9718,7 +10175,7 @@
         <v>Frameworks</v>
       </c>
       <c r="S25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -10014,6 +10471,65 @@
       <c r="S30">
         <f>SUM(K30:Q30)</f>
         <v>77.96860912339362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>70</v>
+      </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <f>$S$2*B31</f>
+        <v>10.183846860452988</v>
+      </c>
+      <c r="L31">
+        <f>$S$3*C31</f>
+        <v>6.0712418261889667</v>
+      </c>
+      <c r="M31">
+        <f>$S$4*D31</f>
+        <v>7.564422649811644</v>
+      </c>
+      <c r="N31">
+        <f>$S$5*E31</f>
+        <v>10.909887930760798</v>
+      </c>
+      <c r="O31">
+        <f>$S$6*F31</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>$S$7*G31</f>
+        <v>9.4457738534724189</v>
+      </c>
+      <c r="Q31">
+        <f>$S$8*H31</f>
+        <v>30.55154058135896</v>
+      </c>
+      <c r="S31">
+        <f>SUM(K31:Q31)</f>
+        <v>74.726713702045771</v>
       </c>
     </row>
   </sheetData>
@@ -10038,10 +10554,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -10060,37 +10576,37 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M1" t="str">
         <f>$B$1</f>
@@ -10129,7 +10645,7 @@
         <v>ISO 25000</v>
       </c>
       <c r="W1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -10881,7 +11397,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <f t="shared" ref="B12:J12" si="11">SUM(B2:B10)</f>
@@ -10922,22 +11438,22 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -11047,7 +11563,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:J25" si="13">B$1</f>
@@ -11122,7 +11638,7 @@
         <v>ISO 25000</v>
       </c>
       <c r="W25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -11502,6 +12018,80 @@
       <c r="W30">
         <f>SUM(M30:U30)</f>
         <v>51.52399285329458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <f>'3_1_Multiplatform-IDE'!I31</f>
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f>$W$2*B31</f>
+        <v>12.288203559857333</v>
+      </c>
+      <c r="N31">
+        <f>$W$3*C31</f>
+        <v>9.0396722402114396</v>
+      </c>
+      <c r="O31">
+        <f>$W$4*D31</f>
+        <v>4.6977829862079261</v>
+      </c>
+      <c r="P31">
+        <f>$W$5*E31</f>
+        <v>10.679921611148032</v>
+      </c>
+      <c r="Q31">
+        <f>$W$6*F31</f>
+        <v>8.9618487698676397</v>
+      </c>
+      <c r="R31">
+        <f>$W$7*G31</f>
+        <v>14.368141984179728</v>
+      </c>
+      <c r="S31">
+        <f>$W$8*H31</f>
+        <v>5.5017526078077417</v>
+      </c>
+      <c r="T31">
+        <f>$W$9*I31</f>
+        <v>8.0336455963210422</v>
+      </c>
+      <c r="U31">
+        <f>$W$10*J31</f>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f>SUM(M31:U31)</f>
+        <v>73.57096935560088</v>
       </c>
     </row>
   </sheetData>
@@ -11526,10 +12116,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -11540,16 +12130,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" t="str">
         <f>$B$1</f>
@@ -11560,7 +12150,7 @@
         <v>Refactoring</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -11622,7 +12212,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <f>SUM(B2:B4)</f>
@@ -11635,22 +12225,22 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -11689,7 +12279,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f>B$1</f>
@@ -11708,7 +12298,7 @@
         <v>Refactoring</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -11829,6 +12419,30 @@
       <c r="I30">
         <f>SUM(F30:G30)</f>
         <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <f>$I$2*B31</f>
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <f>$I$3*C31</f>
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <f>SUM(F31:G31)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -11852,10 +12466,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -11871,28 +12485,28 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="str">
         <f>$B$1</f>
@@ -11919,7 +12533,7 @@
         <v>Sicherheitskonzepte - Raceconditions, NullPointers, …</v>
       </c>
       <c r="Q1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -12275,7 +12889,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <f t="shared" ref="B9:G9" si="7">SUM(B2:B7)</f>
@@ -12304,22 +12918,22 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -12399,7 +13013,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ref="B25:G25" si="9">B$1</f>
@@ -12450,7 +13064,7 @@
         <v>Sicherheitskonzepte - Raceconditions, NullPointers, …</v>
       </c>
       <c r="Q25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -12711,6 +13325,58 @@
       <c r="Q30">
         <f>SUM(J30:O30)</f>
         <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>90</v>
+      </c>
+      <c r="D31">
+        <v>90</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <f>$Q$2*B31</f>
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <f>$Q$3*C31</f>
+        <v>15</v>
+      </c>
+      <c r="L31">
+        <f>$Q$4*D31</f>
+        <v>15</v>
+      </c>
+      <c r="M31">
+        <f>$Q$5*E31</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="N31">
+        <f>$Q$6*F31</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="O31">
+        <f>$Q$7*G31</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="Q31">
+        <f>SUM(J31:O31)</f>
+        <v>81.666666666666657</v>
       </c>
     </row>
   </sheetData>
@@ -12735,10 +13401,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -12749,16 +13415,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" t="str">
         <f>$B$1</f>
@@ -12769,7 +13435,7 @@
         <v>Wartbarkeit</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -12831,7 +13497,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <f>SUM(B2:B4)</f>
@@ -12844,22 +13510,22 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -12898,7 +13564,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
         <f>B$1</f>
@@ -12917,7 +13583,7 @@
         <v>Wartbarkeit</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -13038,6 +13704,30 @@
       <c r="I30">
         <f>SUM(F30:G30)</f>
         <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="str">
+        <f>Sprachen!A6</f>
+        <v>Kotlin</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <f>$I$2*B31</f>
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <f>$I$3*C31</f>
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <f>SUM(F31:G31)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
